--- a/Acetone/MIXTURE_FRAC.xlsx
+++ b/Acetone/MIXTURE_FRAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Acetone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{520B0996-3007-4297-8B9B-EFE8D03FBFD7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E45509C-EA93-4C90-8678-25502A7D5A7A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="4095" windowWidth="18900" windowHeight="11055" xr2:uid="{400C088A-30E8-4ED2-ACD4-7A1D35F72F0F}"/>
+    <workbookView xWindow="25200" yWindow="-13050" windowWidth="16200" windowHeight="11055" xr2:uid="{400C088A-30E8-4ED2-ACD4-7A1D35F72F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,22 +629,22 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.60506097492033584</v>
+        <v>0.65271998491777772</v>
       </c>
       <c r="C2">
-        <v>5.4266717577896195E-2</v>
+        <v>6.3324815531486459E-2</v>
       </c>
       <c r="D2">
-        <v>6.2255912709741393E-4</v>
+        <v>7.2647552018043646E-4</v>
       </c>
       <c r="E2">
-        <v>3.629884819152536E-2</v>
+        <v>2.7068070663292258E-2</v>
       </c>
       <c r="F2">
-        <v>2.3679518624482926E-3</v>
+        <v>2.7632059127537007E-3</v>
       </c>
       <c r="G2">
-        <v>1.7500174224496746E-4</v>
+        <v>2.0421270237036012E-4</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -653,34 +653,34 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.15596330377411718</v>
+        <v>0.18199640372573356</v>
       </c>
       <c r="K2">
-        <v>6.9591315943728263E-2</v>
+        <v>8.1207366898582725E-2</v>
       </c>
       <c r="L2">
-        <v>8.595389620859567E-3</v>
+        <v>1.0030115814189012E-2</v>
       </c>
       <c r="M2">
-        <v>0.5026821533244038</v>
+        <v>0.56557173128622107</v>
       </c>
       <c r="N2">
-        <v>3.4792995108958329E-2</v>
+        <v>4.0600576106341178E-2</v>
       </c>
       <c r="O2">
-        <v>1.5192713079942721E-2</v>
+        <v>1.8034440852684391E-2</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.11332363614425829</v>
+        <v>1.3223940334868239E-3</v>
       </c>
       <c r="R2">
-        <v>2.5241941781541555E-3</v>
+        <v>2.9455279005555948E-3</v>
       </c>
       <c r="S2">
-        <v>3.6032203243653816E-3</v>
+        <v>4.2046630521223871E-3</v>
       </c>
       <c r="T2">
         <v>3.6528022450646957E-4</v>
@@ -691,22 +691,22 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.56427314722759436</v>
+        <v>0.63776024967778155</v>
       </c>
       <c r="C3">
-        <v>6.4339417754591594E-2</v>
+        <v>8.1267679461571291E-2</v>
       </c>
       <c r="D3">
-        <v>8.1085779305424999E-4</v>
+        <v>1.0242015472722735E-3</v>
       </c>
       <c r="E3">
-        <v>3.935463743697986E-2</v>
+        <v>2.9813129926940445E-2</v>
       </c>
       <c r="F3">
-        <v>2.9138424331009646E-3</v>
+        <v>3.6804997794353655E-3</v>
       </c>
       <c r="G3">
-        <v>1.2579787455906512E-4</v>
+        <v>1.5889639203151587E-4</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -715,34 +715,34 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1911330957581994</v>
+        <v>0.24142187950506669</v>
       </c>
       <c r="K3">
-        <v>1.3484294648315839E-2</v>
+        <v>1.7032130123162455E-2</v>
       </c>
       <c r="L3">
-        <v>1.0941156107000733E-2</v>
+        <v>1.3819869661150199E-2</v>
       </c>
       <c r="M3">
-        <v>0.42933831533962907</v>
+        <v>0.52287060575620592</v>
       </c>
       <c r="N3">
-        <v>4.3134581656616981E-2</v>
+        <v>5.4483666127500122E-2</v>
       </c>
       <c r="O3">
-        <v>1.7468227723823906E-2</v>
+        <v>2.2445885422010668E-2</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.17926263377851723</v>
+        <v>2.264281954946649E-3</v>
       </c>
       <c r="R3">
-        <v>3.1586307012903291E-3</v>
+        <v>3.9896939749912734E-3</v>
       </c>
       <c r="S3">
-        <v>4.5345109943207822E-3</v>
+        <v>5.727580367715303E-3</v>
       </c>
       <c r="T3">
         <v>6.3937065295494521E-4</v>
@@ -753,22 +753,22 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.46864840295237753</v>
+        <v>0.53722450424077628</v>
       </c>
       <c r="C4">
-        <v>7.6427170768230246E-2</v>
+        <v>0.1020242186648169</v>
       </c>
       <c r="D4">
-        <v>9.3767724404757906E-4</v>
+        <v>1.2517248410757612E-3</v>
       </c>
       <c r="E4">
-        <v>4.3862387995354593E-2</v>
+        <v>3.4811242707898489E-2</v>
       </c>
       <c r="F4">
-        <v>3.6874776368772183E-3</v>
+        <v>4.9224905353001738E-3</v>
       </c>
       <c r="G4">
-        <v>2.6318959981729928E-4</v>
+        <v>3.5133726673587255E-4</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -777,34 +777,34 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.23718146445722518</v>
+        <v>0.31661846630968482</v>
       </c>
       <c r="K4">
-        <v>1.3609122430812781E-2</v>
+        <v>1.816710037491891E-2</v>
       </c>
       <c r="L4">
-        <v>1.3314914270367413E-2</v>
+        <v>1.7774355786933597E-2</v>
       </c>
       <c r="M4">
-        <v>0.30408879862330462</v>
+        <v>0.39139003560356406</v>
       </c>
       <c r="N4">
-        <v>5.2060833687730727E-2</v>
+        <v>6.9497088883965469E-2</v>
       </c>
       <c r="O4">
-        <v>2.0897354514415226E-2</v>
+        <v>2.8389977045371193E-2</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.2248296351939803</v>
+        <v>3.0012975271481199E-3</v>
       </c>
       <c r="R4">
-        <v>3.3475383050466426E-3</v>
+        <v>4.4686984561895966E-3</v>
       </c>
       <c r="S4">
-        <v>5.492435272790276E-3</v>
+        <v>7.3319659963972262E-3</v>
       </c>
       <c r="T4">
         <v>1.0403569827979284E-3</v>
@@ -815,22 +815,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.34614676830146179</v>
+        <v>0.38724443496937627</v>
       </c>
       <c r="C5">
-        <v>9.0035564777370694E-2</v>
+        <v>0.12745982224051652</v>
       </c>
       <c r="D5">
-        <v>1.0994976961617041E-3</v>
+        <v>1.5565158196447625E-3</v>
       </c>
       <c r="E5">
-        <v>5.0261150057671566E-2</v>
+        <v>4.4404039180830211E-2</v>
       </c>
       <c r="F5">
-        <v>4.7601073770684645E-3</v>
+        <v>6.7386975538738427E-3</v>
       </c>
       <c r="G5">
-        <v>1.4510260936565025E-3</v>
+        <v>2.0541608021355262E-3</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -839,34 +839,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.30808601500098126</v>
+        <v>0.43614530329112616</v>
       </c>
       <c r="K5">
-        <v>9.8264743227171308E-3</v>
+        <v>1.3910954782385292E-2</v>
       </c>
       <c r="L5">
-        <v>1.5792049301445631E-2</v>
+        <v>2.2356185600133409E-2</v>
       </c>
       <c r="M5">
-        <v>0.15097683723407729</v>
+        <v>0.2060740876930367</v>
       </c>
       <c r="N5">
-        <v>6.3566082304666163E-2</v>
+        <v>8.9988012749325899E-2</v>
       </c>
       <c r="O5">
-        <v>2.1850468790528519E-2</v>
+        <v>3.1469986727312604E-2</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.27241541488288773</v>
+        <v>3.8564783196957711E-3</v>
       </c>
       <c r="R5">
-        <v>3.6282824172935387E-3</v>
+        <v>5.1364172934344676E-3</v>
       </c>
       <c r="S5">
-        <v>6.2510297434737157E-3</v>
+        <v>8.8493379465488277E-3</v>
       </c>
       <c r="T5">
         <v>1.3347755453614568E-3</v>
@@ -877,22 +877,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.26703730060753617</v>
+        <v>0.27662193631615239</v>
       </c>
       <c r="C6">
-        <v>0.10023245635458464</v>
+        <v>0.13426263527141816</v>
       </c>
       <c r="D6">
-        <v>1.1702840364778849E-3</v>
+        <v>1.5676101780619123E-3</v>
       </c>
       <c r="E6">
-        <v>5.6493355806658249E-2</v>
+        <v>4.8575793022857153E-2</v>
       </c>
       <c r="F6">
-        <v>6.4998578584911613E-3</v>
+        <v>8.7066413087136044E-3</v>
       </c>
       <c r="G6">
-        <v>1.0679876107708751E-2</v>
+        <v>1.4305828298975396E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -901,34 +901,34 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4058528226579925</v>
+        <v>0.54364495777333288</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.4437750691918244E-2</v>
+        <v>1.9339548543349846E-2</v>
       </c>
       <c r="M6">
-        <v>8.4380974569086165E-2</v>
+        <v>0.10897959207235147</v>
       </c>
       <c r="N6">
-        <v>6.1903625578692487E-2</v>
+        <v>8.2920684629817124E-2</v>
       </c>
       <c r="O6">
-        <v>1.6958097800555474E-2</v>
+        <v>2.3049985538359647E-2</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.23278437429953713</v>
+        <v>3.1181759561891122E-3</v>
       </c>
       <c r="R6">
-        <v>3.0945833852596238E-3</v>
+        <v>4.1452333453972966E-3</v>
       </c>
       <c r="S6">
-        <v>5.5119408530378547E-3</v>
+        <v>7.3833140611763645E-3</v>
       </c>
       <c r="T6">
         <v>1.3957587341662063E-3</v>
@@ -939,22 +939,22 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>0.21995111008003845</v>
+        <v>0.21647800088415964</v>
       </c>
       <c r="C7">
-        <v>9.9124060425710939E-2</v>
+        <v>0.12944567426908629</v>
       </c>
       <c r="D7">
-        <v>9.9342765317639412E-4</v>
+        <v>1.297312800249446E-3</v>
       </c>
       <c r="E7">
-        <v>5.797798212583391E-2</v>
+        <v>4.6234078424782561E-2</v>
       </c>
       <c r="F7">
-        <v>7.0975953715271016E-3</v>
+        <v>9.2687185594564712E-3</v>
       </c>
       <c r="G7">
-        <v>2.0595710793815614E-2</v>
+        <v>2.689584808478087E-2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -963,34 +963,34 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.45896668748174474</v>
+        <v>0.5993625772891894</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.3293694646125214E-2</v>
+        <v>1.7360177333380043E-2</v>
       </c>
       <c r="M7">
-        <v>5.0517525032870894E-2</v>
+        <v>6.3606920651724325E-2</v>
       </c>
       <c r="N7">
-        <v>5.8331119371791841E-2</v>
+        <v>7.6174352074803039E-2</v>
       </c>
       <c r="O7">
-        <v>1.315492820179893E-2</v>
+        <v>1.7373135082282762E-2</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.21212808788779705</v>
+        <v>2.7701713640581973E-3</v>
       </c>
       <c r="R7">
-        <v>2.7151318170674375E-3</v>
+        <v>3.5456786907266482E-3</v>
       </c>
       <c r="S7">
-        <v>5.1040491907398972E-3</v>
+        <v>6.6653553754799349E-3</v>
       </c>
       <c r="T7">
         <v>1.1402221192398716E-3</v>
@@ -1001,22 +1001,22 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>0.11722969216606484</v>
+        <v>0.1070235397486176</v>
       </c>
       <c r="C8">
-        <v>8.2531610687392121E-2</v>
+        <v>9.353853467926726E-2</v>
       </c>
       <c r="D8">
-        <v>6.5431189480016807E-4</v>
+        <v>7.4157495961934845E-4</v>
       </c>
       <c r="E8">
-        <v>6.2699034592042638E-2</v>
+        <v>3.9394150367718796E-2</v>
       </c>
       <c r="F8">
-        <v>9.4822497257988896E-3</v>
+        <v>1.0746860959416694E-2</v>
       </c>
       <c r="G8">
-        <v>6.9964900538656422E-2</v>
+        <v>7.9295850654788572E-2</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1025,34 +1025,34 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.61416617867714429</v>
+        <v>0.69607516349854959</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.5352199817222297E-3</v>
+        <v>8.5401633350638793E-3</v>
       </c>
       <c r="M8">
-        <v>1.3683876742172292E-2</v>
+        <v>1.4953169019467791E-2</v>
       </c>
       <c r="N8">
-        <v>3.7970718063830032E-2</v>
+        <v>4.3034726922551406E-2</v>
       </c>
       <c r="O8">
-        <v>7.048805191708505E-3</v>
+        <v>7.9633460073855657E-3</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9.0120510160174555E-2</v>
+        <v>1.0213953653298213E-3</v>
       </c>
       <c r="R8">
-        <v>1.298888886453531E-3</v>
+        <v>1.472116709441716E-3</v>
       </c>
       <c r="S8">
-        <v>2.8436948581042351E-3</v>
+        <v>3.2229475213994764E-3</v>
       </c>
       <c r="T8">
         <v>9.4558349928821435E-4</v>
@@ -1063,22 +1063,22 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>5.7797613492092684E-2</v>
+        <v>5.3107678115207779E-2</v>
       </c>
       <c r="C9">
-        <v>6.6678190063245851E-2</v>
+        <v>7.1921404912506454E-2</v>
       </c>
       <c r="D9">
-        <v>1.9982412671928524E-4</v>
+        <v>2.1553722312249142E-4</v>
       </c>
       <c r="E9">
-        <v>6.0432608602889779E-2</v>
+        <v>2.3105764989475228E-2</v>
       </c>
       <c r="F9">
-        <v>1.0665099552481197E-2</v>
+        <v>1.1503745716832254E-2</v>
       </c>
       <c r="G9">
-        <v>0.10998527579276934</v>
+        <v>0.11863392733369567</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1087,34 +1087,34 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.69293559875159394</v>
+        <v>0.74742433363641092</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.7535678190465629E-3</v>
+        <v>2.970093607517676E-3</v>
       </c>
       <c r="M9">
-        <v>1.8049102223692969E-3</v>
+        <v>1.8770844484923617E-3</v>
       </c>
       <c r="N9">
-        <v>1.6617537266995382E-2</v>
+        <v>1.7924251172603906E-2</v>
       </c>
       <c r="O9">
-        <v>2.5968812406921473E-3</v>
+        <v>2.6510574565238765E-3</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3.4027219901246797E-2</v>
+        <v>3.6702937770853708E-4</v>
       </c>
       <c r="R9">
-        <v>3.4707139577703415E-4</v>
+        <v>3.743632267995267E-4</v>
       </c>
       <c r="S9">
-        <v>9.5621526417337486E-4</v>
+        <v>1.0314068983111328E-3</v>
       </c>
       <c r="T9">
         <v>3.745553362714471E-4</v>
@@ -1125,22 +1125,22 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>2.6723958539195548E-2</v>
+        <v>2.1319804086281223E-2</v>
       </c>
       <c r="C10">
-        <v>5.0076794409084566E-2</v>
+        <v>4.1508721664377905E-2</v>
       </c>
       <c r="D10">
-        <v>1.1949624885000227E-4</v>
+        <v>6.1767965033083833E-5</v>
       </c>
       <c r="E10">
-        <v>5.616048800423757E-2</v>
+        <v>1.1559011304194542E-2</v>
       </c>
       <c r="F10">
-        <v>1.1270524583611968E-2</v>
+        <v>1.1783769257067377E-2</v>
       </c>
       <c r="G10">
-        <v>0.15160757164813457</v>
+        <v>0.17099874507071203</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1149,22 +1149,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.72478302173519327</v>
+        <v>0.76027875951049628</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.1333868099313488E-4</v>
+        <v>3.8741390164427327E-4</v>
       </c>
       <c r="M10">
-        <v>1.2082602396200931E-4</v>
+        <v>9.630252362850682E-5</v>
       </c>
       <c r="N10">
-        <v>4.6901468306237114E-3</v>
+        <v>3.030573257782825E-3</v>
       </c>
       <c r="O10">
-        <v>3.7008893718299177E-4</v>
+        <v>1.7920791218147108E-4</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1173,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>3.6175537552143191E-5</v>
+        <v>1.8699242529182946E-5</v>
       </c>
       <c r="S10">
-        <v>1.5152736057392503E-4</v>
+        <v>9.7028390352569191E-5</v>
       </c>
       <c r="T10">
         <v>1.1743408933365021E-4</v>
@@ -1187,22 +1187,22 @@
         <v>100</v>
       </c>
       <c r="B11">
-        <v>9.8489183760939424E-3</v>
+        <v>1.0345991827717104E-2</v>
       </c>
       <c r="C11">
-        <v>2.1771252469394209E-2</v>
+        <v>2.2881222811295017E-2</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.2156521214366099E-2</v>
+        <v>3.8363604352541101E-3</v>
       </c>
       <c r="F11">
-        <v>1.1261059755507808E-2</v>
+        <v>1.1835185767070901E-2</v>
       </c>
       <c r="G11">
-        <v>0.18794417821728171</v>
+        <v>0.19752619303463628</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.72655079444061754</v>
+        <v>0.76359275308986174</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.0701163411027692E-4</v>
+        <v>1.0843779035774792E-4</v>
       </c>
       <c r="N11">
-        <v>2.0918226872234503E-4</v>
+        <v>2.1984707152410084E-4</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1345,22 +1345,22 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.9084264971769503E-2</v>
+        <v>6.3613497061017168E-2</v>
       </c>
       <c r="C2">
-        <v>4.9945976686423125E-3</v>
+        <v>5.553635973196803E-3</v>
       </c>
       <c r="D2">
-        <v>6.1017033291701944E-5</v>
+        <v>6.825161839899108E-5</v>
       </c>
       <c r="E2">
-        <v>5.6161974529722524E-3</v>
+        <v>5.6250394408425925E-3</v>
       </c>
       <c r="F2">
-        <v>2.2464993121354347E-4</v>
+        <v>2.5053832358014165E-4</v>
       </c>
       <c r="G2">
-        <v>1.5987725600524694E-5</v>
+        <v>1.7763734428754699E-5</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1369,34 +1369,34 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.4295265392402482E-2</v>
+        <v>1.5888618572078506E-2</v>
       </c>
       <c r="K2">
-        <v>0.11819679325805953</v>
+        <v>0.13790734094091686</v>
       </c>
       <c r="L2">
-        <v>8.8767732057662592E-4</v>
+        <v>9.972725181807173E-4</v>
       </c>
       <c r="M2">
-        <v>5.7433748217996634E-2</v>
+        <v>6.341678035845201E-2</v>
       </c>
       <c r="N2">
-        <v>3.1981066109593522E-3</v>
+        <v>3.5555959621863279E-3</v>
       </c>
       <c r="O2">
-        <v>3.8268851806260466E-3</v>
+        <v>4.5401613113744107E-3</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>5.3107940105431246E-2</v>
+        <v>6.1862532662647894E-4</v>
       </c>
       <c r="R2">
-        <v>2.504214746662196E-4</v>
+        <v>2.8041001051690037E-4</v>
       </c>
       <c r="S2">
-        <v>3.6841390798402173E-4</v>
+        <v>4.1356944151420359E-4</v>
       </c>
       <c r="T2">
         <v>1.4821872093528022E-5</v>
@@ -1407,22 +1407,22 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5.6456046910724186E-2</v>
+        <v>4.9856314371161253E-2</v>
       </c>
       <c r="C3">
-        <v>6.0120110824181689E-3</v>
+        <v>4.3014615831999566E-3</v>
       </c>
       <c r="D3">
-        <v>8.0037555223216517E-5</v>
+        <v>6.3245859577180249E-5</v>
       </c>
       <c r="E3">
-        <v>8.9545306536502316E-3</v>
+        <v>1.2815910702197312E-2</v>
       </c>
       <c r="F3">
-        <v>2.7725581371920564E-4</v>
+        <v>2.0570910061792788E-4</v>
       </c>
       <c r="G3">
-        <v>4.4474130578849669E-5</v>
+        <v>5.482687970123912E-5</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1431,34 +1431,34 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.7778068206479477E-2</v>
+        <v>1.2595021453962928E-2</v>
       </c>
       <c r="K3">
-        <v>2.2153608959927112E-2</v>
+        <v>2.7951662142775519E-2</v>
       </c>
       <c r="L3">
-        <v>1.1353367135092708E-3</v>
+        <v>9.6123214011261217E-4</v>
       </c>
       <c r="M3">
-        <v>5.1933099586531785E-2</v>
+        <v>4.960387849882221E-2</v>
       </c>
       <c r="N3">
-        <v>3.9931745771709191E-3</v>
+        <v>2.7995271846603148E-3</v>
       </c>
       <c r="O3">
-        <v>4.3781038696289179E-3</v>
+        <v>5.3861633463495786E-3</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8.6794096754131758E-2</v>
+        <v>1.0823491289345853E-3</v>
       </c>
       <c r="R3">
-        <v>3.1423220006562976E-4</v>
+        <v>2.5129090023473012E-4</v>
       </c>
       <c r="S3">
-        <v>4.8332098353031305E-4</v>
+        <v>4.2209380937003894E-4</v>
       </c>
       <c r="T3">
         <v>2.8962459490505354E-4</v>
@@ -1469,22 +1469,22 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.10930721554105735</v>
+        <v>0.13126208477193813</v>
       </c>
       <c r="C4">
-        <v>9.1267471789068522E-3</v>
+        <v>7.236027328107456E-3</v>
       </c>
       <c r="D4">
-        <v>1.1115796682208442E-4</v>
+        <v>8.6928819306982411E-5</v>
       </c>
       <c r="E4">
-        <v>7.5451057370591523E-3</v>
+        <v>7.3159263374412342E-3</v>
       </c>
       <c r="F4">
-        <v>5.6928716184504271E-4</v>
+        <v>5.9487091636943503E-4</v>
       </c>
       <c r="G4">
-        <v>2.8533200351333693E-4</v>
+        <v>3.7939703643236571E-4</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1493,34 +1493,34 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3.690030195175583E-2</v>
+        <v>3.8744537588191602E-2</v>
       </c>
       <c r="K4">
-        <v>2.4433866327360231E-2</v>
+        <v>3.2570543523486192E-2</v>
       </c>
       <c r="L4">
-        <v>1.7856111139154607E-3</v>
+        <v>1.6630364695945318E-3</v>
       </c>
       <c r="M4">
-        <v>0.10586719088426332</v>
+        <v>0.13114844629575084</v>
       </c>
       <c r="N4">
-        <v>6.0364065877862097E-3</v>
+        <v>4.5113920241558747E-3</v>
       </c>
       <c r="O4">
-        <v>3.075173059134728E-3</v>
+        <v>3.1782817083732895E-3</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.10647794865742917</v>
+        <v>1.3918416424105633E-3</v>
       </c>
       <c r="R4">
-        <v>4.305846133100293E-4</v>
+        <v>3.8219024809744257E-4</v>
       </c>
       <c r="S4">
-        <v>6.7976673593461072E-4</v>
+        <v>5.7204911499591268E-4</v>
       </c>
       <c r="T4">
         <v>7.9435861828233061E-5</v>
@@ -1531,22 +1531,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3.9985932048420457E-2</v>
+        <v>1.7564665445875049E-2</v>
       </c>
       <c r="C5">
-        <v>1.1685761942627377E-2</v>
+        <v>5.6214102178233204E-3</v>
       </c>
       <c r="D5">
-        <v>1.4743340016899181E-4</v>
+        <v>8.6384359639858006E-5</v>
       </c>
       <c r="E5">
-        <v>9.0462390123397796E-3</v>
+        <v>8.5918133875261971E-3</v>
       </c>
       <c r="F5">
-        <v>6.2745177886844338E-4</v>
+        <v>3.3522078956421116E-4</v>
       </c>
       <c r="G5">
-        <v>1.8763057103430791E-4</v>
+        <v>8.7641219746434221E-5</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1555,34 +1555,34 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.990369050614808E-2</v>
+        <v>1.8887108455882054E-2</v>
       </c>
       <c r="K5">
-        <v>2.4880130936478201E-2</v>
+        <v>3.5180870123147683E-2</v>
       </c>
       <c r="L5">
-        <v>2.1790762063098176E-3</v>
+        <v>1.438385971037084E-3</v>
       </c>
       <c r="M5">
-        <v>2.210081497160471E-2</v>
+        <v>1.7026396735868914E-2</v>
       </c>
       <c r="N5">
-        <v>8.2448742278562661E-3</v>
+        <v>3.9462224439355707E-3</v>
       </c>
       <c r="O5">
-        <v>2.924751128854704E-3</v>
+        <v>1.7334296008477161E-3</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.1300759040461765</v>
+        <v>1.780244840466777E-3</v>
       </c>
       <c r="R5">
-        <v>4.8970946376772795E-4</v>
+        <v>2.9579908874722129E-4</v>
       </c>
       <c r="S5">
-        <v>8.5775385258732924E-4</v>
+        <v>5.5464344746626137E-4</v>
       </c>
       <c r="T5">
         <v>6.8587613385216614E-5</v>
@@ -1593,22 +1593,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>3.6396305745328997E-2</v>
+        <v>2.1997799070162073E-2</v>
       </c>
       <c r="C6">
-        <v>1.213793642095662E-2</v>
+        <v>7.1701969477627626E-3</v>
       </c>
       <c r="D6">
-        <v>1.3651135516950518E-4</v>
+        <v>6.6398808994748101E-5</v>
       </c>
       <c r="E6">
-        <v>1.089512401196174E-2</v>
+        <v>1.3675332384556781E-2</v>
       </c>
       <c r="F6">
-        <v>7.9855158895573639E-4</v>
+        <v>4.9872490456192274E-4</v>
       </c>
       <c r="G6">
-        <v>1.0109665105423628E-2</v>
+        <v>1.3452466554809315E-2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1617,34 +1617,34 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.2500436629276642E-2</v>
+        <v>3.8136202259608773E-2</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.7981777931025509E-3</v>
+        <v>3.1033538386884417E-3</v>
       </c>
       <c r="M6">
-        <v>1.8090133581333011E-2</v>
+        <v>2.0227175161866208E-2</v>
       </c>
       <c r="N6">
-        <v>9.1985198779400996E-3</v>
+        <v>8.4022672685109892E-3</v>
       </c>
       <c r="O6">
-        <v>4.3774852026018775E-3</v>
+        <v>5.4446349819349529E-3</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.12144087292814078</v>
+        <v>1.5910214467298471E-3</v>
       </c>
       <c r="R6">
-        <v>4.1351150759811451E-4</v>
+        <v>3.2223086187719457E-4</v>
       </c>
       <c r="S6">
-        <v>9.5132607859804469E-4</v>
+        <v>9.8991205940940114E-4</v>
       </c>
       <c r="T6">
         <v>5.3561238416670722E-5</v>
@@ -1655,22 +1655,22 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>4.2204493039229685E-2</v>
+        <v>3.3817614838014223E-2</v>
       </c>
       <c r="C7">
-        <v>1.2953833273731853E-2</v>
+        <v>1.0977372168292535E-2</v>
       </c>
       <c r="D7">
-        <v>1.8865321130724416E-4</v>
+        <v>2.0989217080968523E-4</v>
       </c>
       <c r="E7">
-        <v>1.0267398961216135E-2</v>
+        <v>1.1453109218462536E-2</v>
       </c>
       <c r="F7">
-        <v>1.1863279142450493E-3</v>
+        <v>1.2452876846833203E-3</v>
       </c>
       <c r="G7">
-        <v>2.2210145286577582E-2</v>
+        <v>2.8880578904498952E-2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1679,34 +1679,34 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.852756983041688E-2</v>
+        <v>8.3454593477204492E-2</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>4.3812679781406738E-3</v>
+        <v>5.4548840221346345E-3</v>
       </c>
       <c r="M7">
-        <v>2.3809227117236403E-2</v>
+        <v>2.9325257289217047E-2</v>
       </c>
       <c r="N7">
-        <v>1.5015904488990208E-2</v>
+        <v>1.8087399470322681E-2</v>
       </c>
       <c r="O7">
-        <v>7.8022589273300386E-3</v>
+        <v>1.02830202276681E-2</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.12829544502060922</v>
+        <v>1.6526078819456991E-3</v>
       </c>
       <c r="R7">
-        <v>8.0841708216408334E-4</v>
+        <v>9.9510216468814321E-4</v>
       </c>
       <c r="S7">
-        <v>1.5212432337398307E-3</v>
+        <v>1.8727763633635841E-3</v>
       </c>
       <c r="T7">
         <v>4.0016422727251008E-5</v>
@@ -1717,22 +1717,22 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>1.7356570443929027E-2</v>
+        <v>1.463204803536141E-2</v>
       </c>
       <c r="C8">
-        <v>2.0241146681053996E-2</v>
+        <v>2.2666440529201925E-2</v>
       </c>
       <c r="D8">
-        <v>2.0310610965139811E-4</v>
+        <v>2.2847999214165151E-4</v>
       </c>
       <c r="E8">
-        <v>1.0563418568723629E-2</v>
+        <v>1.2354657989158708E-2</v>
       </c>
       <c r="F8">
-        <v>8.283215767091387E-4</v>
+        <v>8.463217478690831E-4</v>
       </c>
       <c r="G8">
-        <v>3.353159216735347E-2</v>
+        <v>3.7885151431217269E-2</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1741,34 +1741,34 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.5061664934451658E-2</v>
+        <v>5.6585287775579675E-2</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.7941919372141515E-3</v>
+        <v>3.1503415299875513E-3</v>
       </c>
       <c r="M8">
-        <v>3.1147351742761733E-3</v>
+        <v>3.3664103380314212E-3</v>
       </c>
       <c r="N8">
-        <v>1.2074489532326508E-2</v>
+        <v>1.3587763535549933E-2</v>
       </c>
       <c r="O8">
-        <v>3.135439429252573E-4</v>
+        <v>1.8665562540261886E-4</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4.6121124130139246E-2</v>
+        <v>5.212930291521111E-4</v>
       </c>
       <c r="R8">
-        <v>4.0600667201945109E-4</v>
+        <v>4.5677629017961758E-4</v>
       </c>
       <c r="S8">
-        <v>9.5955036214411893E-4</v>
+        <v>1.0806747454003482E-3</v>
       </c>
       <c r="T8">
         <v>4.1300003580276173E-5</v>
@@ -1779,22 +1779,22 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>6.9277853807634317E-3</v>
+        <v>6.0016645915035981E-3</v>
       </c>
       <c r="C9">
-        <v>9.3854205536558453E-3</v>
+        <v>1.0016593832282837E-2</v>
       </c>
       <c r="D9">
-        <v>2.8944886961620417E-4</v>
+        <v>3.1217862239878462E-4</v>
       </c>
       <c r="E9">
-        <v>2.048154650111382E-2</v>
+        <v>1.3132430217861093E-2</v>
       </c>
       <c r="F9">
-        <v>4.2806621938366315E-4</v>
+        <v>3.9766695829573435E-4</v>
       </c>
       <c r="G9">
-        <v>8.5405143336584975E-3</v>
+        <v>8.8886326391467291E-3</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1803,34 +1803,34 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2.2012739658183116E-2</v>
+        <v>1.8203396056856568E-2</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.0088658338961473E-3</v>
+        <v>1.0865101381563411E-3</v>
       </c>
       <c r="M9">
-        <v>5.1001204137868879E-4</v>
+        <v>5.3003342200129281E-4</v>
       </c>
       <c r="N9">
-        <v>5.0958973717107683E-3</v>
+        <v>5.4844400102217359E-3</v>
       </c>
       <c r="O9">
-        <v>5.2243480412470368E-4</v>
+        <v>5.7359901901820221E-4</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.644041655601329E-2</v>
+        <v>1.7717394549243291E-4</v>
       </c>
       <c r="R9">
-        <v>3.8680235333864106E-5</v>
+        <v>4.1017185154718669E-5</v>
       </c>
       <c r="S9">
-        <v>2.7444100116420843E-4</v>
+        <v>2.9527312722410915E-4</v>
       </c>
       <c r="T9">
         <v>5.5592372236095103E-5</v>
@@ -1841,22 +1841,22 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>5.3371638749385802E-4</v>
+        <v>9.403423027318808E-3</v>
       </c>
       <c r="C10">
-        <v>1.186903120280263E-3</v>
+        <v>2.055169388652045E-2</v>
       </c>
       <c r="D10">
-        <v>4.9222416766339797E-6</v>
+        <v>1.2358698157668313E-4</v>
       </c>
       <c r="E10">
-        <v>7.8356121954432038E-3</v>
+        <v>2.1987100905567678E-3</v>
       </c>
       <c r="F10">
-        <v>3.7231779694546984E-4</v>
+        <v>4.8893012204316371E-4</v>
       </c>
       <c r="G10">
-        <v>3.1692167607731614E-3</v>
+        <v>2.8819942706795547E-2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1865,22 +1865,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.6075650555019038E-2</v>
+        <v>2.8999052800261008E-2</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.2200174974097077E-5</v>
+        <v>4.9391349725538163E-4</v>
       </c>
       <c r="M10">
-        <v>8.6666016432417943E-6</v>
+        <v>4.8828670573055397E-5</v>
       </c>
       <c r="N10">
-        <v>1.0896130212047923E-4</v>
+        <v>3.6372462256238579E-3</v>
       </c>
       <c r="O10">
-        <v>5.4045575101534257E-6</v>
+        <v>3.3030921091296069E-6</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1.5905338098958631E-6</v>
+        <v>3.7416148956397708E-5</v>
       </c>
       <c r="S10">
-        <v>7.6442119140713416E-6</v>
+        <v>1.1938311646256694E-4</v>
       </c>
       <c r="T10">
         <v>4.3615910695519825E-5</v>
@@ -1903,22 +1903,22 @@
         <v>100</v>
       </c>
       <c r="B11">
-        <v>2.2777179567336575E-4</v>
+        <v>2.3091822602079265E-4</v>
       </c>
       <c r="C11">
-        <v>5.1512627561548429E-4</v>
+        <v>5.2229093740313126E-4</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.4957340095438592E-3</v>
+        <v>7.2804950674693937E-4</v>
       </c>
       <c r="F11">
-        <v>3.7445370598664779E-4</v>
+        <v>3.8657781607415252E-4</v>
       </c>
       <c r="G11">
-        <v>4.1156273552805742E-3</v>
+        <v>4.1467671783749294E-3</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.6083169275904738E-2</v>
+        <v>1.6220119941363662E-2</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1936,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7.6742818910466088E-6</v>
+        <v>7.9703144149078107E-6</v>
       </c>
       <c r="N11">
-        <v>4.8510039326762873E-6</v>
+        <v>4.9109616003819709E-6</v>
       </c>
       <c r="O11">
         <v>0</v>
